--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Sr. No</t>
   </si>
@@ -1167,13 +1167,41 @@
       </rPr>
       <t xml:space="preserve"> It suggests, management of rice-wheat cropping systems be aimed at applying P avoiding heavy rain events and at a rate balancing crop P removal.</t>
     </r>
+  </si>
+  <si>
+    <t>Sumukha</t>
+  </si>
+  <si>
+    <t>Prediction of Crop Fertilizer Consumption</t>
+  </si>
+  <si>
+    <t>IEEE, DOI: 10.1109/ICCUBEA.2018.8697827</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8697827</t>
+  </si>
+  <si>
+    <t>This system consists of phases such as: Image acquisition, converting of input image to gray scale image, plotting of histogram, segregating plants into healthy and nitrogen deficient plants determining the affected region and fertilizer consumption (a kind of Digital Image Processing).</t>
+  </si>
+  <si>
+    <t>The proposed work identifies the nitrogen deficiency in chilly, determines the area of region of deficient region and predicts the amount of fertilizer consumption by these deficient plants.</t>
+  </si>
+  <si>
+    <t>There is need for proper guidance for optimal usage of these fertilizers and is required by farmers in order to get more yields and prevent wastage.The factors affecting the fertilizer consumption 
+are: extent of available land, cultivated land, rainfall, cropping 
+pattern, soil characteristics. The various nitrogen 
+fertilizers that are supplied to plant, when it is deficient are 
+ammonium nitrate, urea, ammonium sulphate, and 
+annyhydrous ammonia.  Prediction of fertilizer consumption can prevent 
+the toxicity and deficiency in plants to certain extent and this 
+can help farmers to get proper yield without much wastage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,8 +1345,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,8 +1388,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1385,12 +1430,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1510,19 +1568,28 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,7 +2038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="C9" s="23"/>
       <c r="H9" s="29" t="s">
         <v>57</v>
@@ -1998,7 +2065,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="156" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -2020,7 +2087,7 @@
       <c r="H11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="43" t="s">
         <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2047,7 +2114,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="168" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -2090,7 +2157,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:15" ht="108" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="96" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -2136,7 +2203,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="2:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="96" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>6</v>
       </c>
@@ -2185,7 +2252,7 @@
       <c r="K22" s="38"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="2:15" ht="156" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="144" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>7</v>
       </c>
@@ -2213,14 +2280,14 @@
       <c r="J23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="41" t="s">
         <v>95</v>
       </c>
       <c r="M23"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24" s="23"/>
-      <c r="H24" s="41"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25" s="23"/>
@@ -2228,12 +2295,12 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="38"/>
     </row>
-    <row r="26" spans="2:15" ht="144" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="132" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>8</v>
       </c>
@@ -2255,7 +2322,7 @@
       <c r="H26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="42" t="s">
         <v>101</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -2272,7 +2339,7 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" s="23"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -2280,11 +2347,34 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="132" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>9</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43313</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D31" s="19"/>
@@ -2328,9 +2418,10 @@
     <hyperlink ref="K20" r:id="rId6"/>
     <hyperlink ref="K23" r:id="rId7"/>
     <hyperlink ref="K26" r:id="rId8"/>
+    <hyperlink ref="K29" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>Sr. No</t>
   </si>
@@ -1196,12 +1196,27 @@
 the toxicity and deficiency in plants to certain extent and this 
 can help farmers to get proper yield without much wastage.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Controlled traffic farming effects on productivity of grain sorghum, rainfall and fertiliser nitrogen use efficiency
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Agriculture and Food Research
+, ISSN: 2666-1543 (Elsevier)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlled traffic farming (CTF) increased long-term grain yields by 30% in average-rainfall seasons. </t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2666154321000132</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,6 +1371,17 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1395,7 +1421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1443,12 +1469,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1577,19 +1640,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1878,11 +1959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2368,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24" s="23"/>
-      <c r="H24" s="44"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25" s="23"/>
@@ -2295,7 +2376,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="45"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="38"/>
@@ -2354,10 +2435,10 @@
       <c r="C29" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="46" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="4">
@@ -2372,7 +2453,7 @@
       <c r="J29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="45" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2386,17 +2467,61 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="84" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44256</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G34" s="49"/>
+    </row>
+    <row r="35" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G35" s="50"/>
       <c r="H35" s="7"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G38" s="49"/>
       <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G41" s="50"/>
+    </row>
+    <row r="42" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="7:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G43" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2419,9 +2544,10 @@
     <hyperlink ref="K23" r:id="rId7"/>
     <hyperlink ref="K26" r:id="rId8"/>
     <hyperlink ref="K29" r:id="rId9"/>
+    <hyperlink ref="K32" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
